--- a/BackEnd/structured_messages.xlsx
+++ b/BackEnd/structured_messages.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>Chat Type</t>
   </si>
@@ -28,43 +28,105 @@
     <t>Timestamp</t>
   </si>
   <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>Working</t>
-  </si>
-  <si>
-    <t>Ali Tayyab</t>
-  </si>
-  <si>
-    <t>Yfufy</t>
-  </si>
-  <si>
-    <t>11/6/2024, 11:56:40 AM</t>
-  </si>
-  <si>
-    <t>Ydudd</t>
-  </si>
-  <si>
-    <t>11/6/2024, 11:56:58 AM</t>
-  </si>
-  <si>
-    <t>Yhg</t>
-  </si>
-  <si>
-    <t>11/6/2024, 11:57:10 AM</t>
-  </si>
-  <si>
-    <t>Yytt</t>
-  </si>
-  <si>
-    <t>11/6/2024, 11:57:11 AM</t>
-  </si>
-  <si>
-    <t>Yyy</t>
-  </si>
-  <si>
-    <t>11/6/2024, 11:57:12 AM</t>
+    <t>Society</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Plot</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Demand</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Corner</t>
+  </si>
+  <si>
+    <t>Facing</t>
+  </si>
+  <si>
+    <t>Park</t>
+  </si>
+  <si>
+    <t>Road</t>
+  </si>
+  <si>
+    <t>Client Number</t>
+  </si>
+  <si>
+    <t>Dealer Number</t>
+  </si>
+  <si>
+    <t>Portion</t>
+  </si>
+  <si>
+    <t>FullHouse</t>
+  </si>
+  <si>
+    <t>Sale</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>Mehar Adnan Kbootar Lahore</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required required required 🚨🚨🚨🚨🚨🚨🚨🚨🚨🚨🚨🚨🚨
+Black polish quality females 
+White polish quality females 
+Tolbent polish quality females
+Black mottled polish quality  females
+Frizal polish in white or black color  quality females 
+Silver spride quality male 
+If </t>
+  </si>
+  <si>
+    <t>11/9/2024, 6:17:30 PM</t>
+  </si>
+  <si>
+    <t>alihamza Collage Friend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be aware of your own worth;
+Use all your power to achieve it. 
+(Allam Iqbal...)</t>
+  </si>
+  <si>
+    <t>Daniyal Khan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*BAHRIA TOWN LHR*
+*663 JASMINE @260 ADC (CORNER)11.63 MARLA*
+*839 JASMINE @230 UPP*
+10MARLA PAIR
+*237 - 238 TALHA @ 290 AMF*
+*1122 QUAID 190 AMF ADC*
+*387 TALHA @150 UPP*
+10 MARLA USED HOUSE AVAILAIBLE FOR SALE
+*NEW SHAHEEN BLOCK @300*
+*NASEEM SHAH*
+03224818203
+03004818203</t>
+  </si>
+  <si>
+    <t>11/9/2024, 6:17:47 PM</t>
   </si>
 </sst>
 </file>
@@ -441,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:V4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
@@ -449,9 +511,14 @@
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="50" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="11" width="10" customWidth="1"/>
+    <col min="12" max="13" width="15" customWidth="1"/>
+    <col min="14" max="17" width="10" customWidth="1"/>
+    <col min="18" max="22" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,91 +533,108 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
